--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سندة أرز رفيع- 1 كجم</t>
-  </si>
-  <si>
-    <t>حلو الشام شيكولاتة كفرتوره -للمطبخ 200 جم</t>
-  </si>
-  <si>
-    <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+  </si>
+  <si>
+    <t>عصير تانج مانجو ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,16 +438,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11894</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>240.75</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -455,16 +455,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>12493</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>561</v>
+        <v>101.75</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -472,16 +472,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>12493</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>46.75</v>
+        <v>1017.5</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -489,35 +489,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24707</v>
+        <v>11403</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>47.75</v>
+        <v>336.75</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>24707</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>859.5</v>
-      </c>
-      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,34 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+    <t>مرقة ماجى دجاج شريط - 8 جم</t>
   </si>
   <si>
     <t>عصير تانج مانجو ظرف - 20 جم</t>
   </si>
   <si>
-    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
+    <t>سائل غسيل اطباق بريل ليمون - 2.55 كجم</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 5 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>سفن اب 1.47 لتر</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +453,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -447,27 +462,27 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>330</v>
+        <v>765</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>101.75</v>
+        <v>42.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,30 +493,149 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1017.5</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>11403</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>336.75</v>
+        <v>1010</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>792</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1490</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>580.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2424</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>860</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2424</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8915</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8938</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>8939</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,31 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مرقة ماجى دجاج شريط - 8 جم</t>
-  </si>
-  <si>
-    <t>عصير تانج مانجو ظرف - 20 جم</t>
-  </si>
-  <si>
-    <t>سائل غسيل اطباق بريل ليمون - 2.55 كجم</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 700 مل</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 5 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>سفن اب 1.47 لتر</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>مكرونة بساطة هلالية - 350 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -422,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>161</v>
+        <v>7708</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>765</v>
+        <v>165.75</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>42.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>345</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>345</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1010</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1324</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>792</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1490</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>580.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2424</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>860</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2424</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>172</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8915</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>185</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>8938</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>185</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>8939</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>فول حبوبة تدميس - 500 جم</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك - 5 كجم</t>
+  </si>
+  <si>
     <t>مكرونة بساطة هلالية - 350 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +441,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7708</v>
+        <v>2324</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +450,95 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>165.75</v>
+        <v>192.5</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3658</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>866</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>7708</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>167.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>8216</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>15.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>8216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>366</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>266.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فول حبوبة تدميس - 500 جم</t>
-  </si>
-  <si>
-    <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك - 5 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة هلالية - 350 جم</t>
-  </si>
-  <si>
     <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
   </si>
   <si>
-    <t>سندة سكر - 1 كجم</t>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>جبنة باندا فيتا  - 500 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,104 +435,87 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2324</v>
+        <v>8216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>192.5</v>
+        <v>16.25</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3658</v>
+        <v>8216</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>866</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>7708</v>
+        <v>9796</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>167.75</v>
+        <v>29.25</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>8216</v>
+        <v>9796</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1404</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>15.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>8216</v>
+        <v>21745</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>427.25</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>366</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>11404</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>266.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
-  </si>
-  <si>
-    <t>جبنة باندا فيتا  - 500 جم</t>
+    <t>عصير تانج برتقال ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>جبنـة ابو الولد - 8 مثلث</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,87 +432,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8216</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>16.25</v>
+        <v>1050</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8216</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9796</v>
+        <v>3495</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>29.25</v>
+        <v>1190</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9796</v>
+        <v>3495</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1404</v>
+        <v>29.75</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>21745</v>
-      </c>
-      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>427.25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير تانج برتقال ظرف - 20 جم</t>
-  </si>
-  <si>
-    <t>جبنـة ابو الولد - 8 مثلث</t>
+    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +441,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>201</v>
+        <v>1274</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,61 +450,146 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1050</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>201</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>28.5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3495</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>1190</v>
+        <v>684</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3495</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3558</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1368</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>8216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>8216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21687</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>29.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21687</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+    <t>سلايت زيت عباد الشمس مكرر- 675 مل</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى لافندر - 30 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -410,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1274</v>
+        <v>1082</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -450,146 +441,27 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>380</v>
+        <v>709</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3558</v>
+        <v>11159</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>28.5</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3558</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>684</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3558</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>342</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3558</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1368</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>8216</v>
-      </c>
-      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>408</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>8216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>21687</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>21687</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>300</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سلايت زيت عباد الشمس مكرر- 675 مل</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى لافندر - 30 جم</t>
+    <t>زيت قلية خليط - 700 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1082</v>
+        <v>922</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,27 +438,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>709</v>
+        <v>606</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>11159</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>زيت قلية خليط - 700 مل</t>
+    <t>شاى ليبتون خرز - 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,18 +429,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>922</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>66.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>491</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>606</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>3192</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,88 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون خرز - 250 جم</t>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>سبرايت جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 لافندر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوروكس باودر - 250 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون - 700 مل</t>
+  </si>
+  <si>
+    <t>سبرايت - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>ريحانة  بقسماط ناعم - 300 جم</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
+  </si>
+  <si>
+    <t>مربى البوادى مشمش - 680 جم</t>
+  </si>
+  <si>
+    <t>قهوة ابو عوف 3*1 سريعة التحضير - 18 جم</t>
+  </si>
+  <si>
+    <t>زيووو إكسترا كرانشى طماطم - 5 جنية</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف ليمون - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل+ منظف زهور - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف نعناع  - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس ابيض لافندر - 4 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,36 +510,529 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>491</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>66.5</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>491</v>
+        <v>615</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>290.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>616</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>291.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2658</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>378.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2661</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>378.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2663</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>508</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>508</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2666</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>735</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2669</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>509</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2670</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>447</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2673</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>507</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2775</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>212.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>323</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3387</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3390</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>267</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>376.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3399</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>507</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>6946</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>509</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>7673</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3192</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>7673</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>360</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>8939</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>186.25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>10254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>475</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>10414</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>516</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>10414</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>10537</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>762</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>10537</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>63.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>12343</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>50.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>23904</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>305</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>23905</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>305</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>23906</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>305</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>23908</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>211</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسى اوتوماتيك - 2.5 كجم</t>
+    <t>نسكافيه كلاسيك - 1.8 جم</t>
+  </si>
+  <si>
+    <t>اندومى فراخ عرض 44 كيس - 70 جم</t>
+  </si>
+  <si>
+    <t>زيت عافية ذرة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة فرن - 280 جم</t>
+  </si>
+  <si>
+    <t>شاى العروسة -..0 100 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1 كجم</t>
+  </si>
+  <si>
+    <t>15% هارفست فول بزيت الزيتون خصم  - 400 جم</t>
+  </si>
+  <si>
+    <t>شويبس رمان بلاستيك - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +450,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5111</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>675</v>
+        <v>84.25</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4044</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2203</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>265</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2538</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>952.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5868</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>140.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>7887</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7887</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2544</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9356</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>631.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>10450</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11685</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>108.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,28 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>نسكافيه كلاسيك - 1.8 جم</t>
-  </si>
-  <si>
-    <t>اندومى فراخ عرض 44 كيس - 70 جم</t>
-  </si>
-  <si>
-    <t>زيت عافية ذرة - 2.2 لتر</t>
-  </si>
-  <si>
-    <t>مكرونة خطيرة فرن - 280 جم</t>
-  </si>
-  <si>
-    <t>شاى العروسة -..0 100 جم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر - 1 كجم</t>
-  </si>
-  <si>
-    <t>15% هارفست فول بزيت الزيتون خصم  - 400 جم</t>
-  </si>
-  <si>
-    <t>شويبس رمان بلاستيك - 250 مل</t>
+    <t>مكرونة حواء هلالية - 400 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -419,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>84.25</v>
+        <v>259.5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4044</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2203</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>265</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>2538</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>952.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5868</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>140.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>7887</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>212</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7887</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2544</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>9356</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>631.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>10450</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>204</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10450</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>11685</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>108.25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة حواء هلالية - 400 جم</t>
+    <t>عصير جهينة عنب احمر - 235 مل</t>
+  </si>
+  <si>
+    <t>كوكا كولا جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>زيت عافية عباد الشمس - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
+  </si>
+  <si>
+    <t>هاي جين مناديل جيب مبللة بالحماية المزدوجة 10+5_ 15 منديل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +441,121 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>37</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>615</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>318.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2537</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>259.5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D4">
+        <v>775</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>9797</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>9797</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1440</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>860</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>107.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة عنب احمر - 235 مل</t>
-  </si>
-  <si>
-    <t>كوكا كولا جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>زيت عافية عباد الشمس - 2.2 لتر</t>
+    <t>عسل البوادى اسود - 355 جم</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
   </si>
   <si>
     <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
   </si>
   <si>
-    <t>هاي جين مناديل جيب مبللة بالحماية المزدوجة 10+5_ 15 منديل</t>
+    <t>كوكا كولا كانز ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 310 جم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,121 +447,240 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>615</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>318.75</v>
+        <v>22.75</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2537</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>775</v>
+        <v>136.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9797</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>546</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>9797</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1440</v>
+        <v>1070</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20317</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>860</v>
+        <v>267.5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20317</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>26.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>535</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>14.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9797</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>32.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>9797</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1560</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11396</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>107.5</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>326.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>11814</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عسل البوادى اسود - 355 جم</t>
-  </si>
-  <si>
-    <t>طحينة البوادى - 125 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
-  </si>
-  <si>
-    <t>كوكا كولا كانز ستار - 320 مل</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 310 جم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>عصير جهينة برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>بيبسى - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>ريد بل - 250 مل</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -416,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,240 +438,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>71</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>71</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>22.75</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>71</v>
+        <v>5151</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>136.5</v>
+        <v>1230</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>71</v>
+        <v>6158</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>546</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>336</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1070</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>336</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>267.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>336</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>26.75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>336</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>535</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>14.25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>8216</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>342</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>9797</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>32.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>9797</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1560</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>11396</v>
-      </c>
-      <c r="B14" t="s">
         <v>11</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>326.75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>11814</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_703.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_703.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة برتقال - 235 مل</t>
-  </si>
-  <si>
-    <t>بيبسى - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>ريد بل - 250 مل</t>
-  </si>
-  <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم - 30 جم</t>
+  </si>
+  <si>
+    <t>سوفى ليلية ماكسى بالمسك طويل جدا جدا 36 سم عرض خاص - 12 فوطة</t>
+  </si>
+  <si>
+    <t>جود كير مناديل تواليت 2طبقة- 2 رول</t>
+  </si>
+  <si>
+    <t>الساقية سمنة أبيض 6عبوة - 1450 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,70 +450,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>417</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>190</v>
+        <v>2496</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>589</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>5151</v>
+        <v>2778</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1230</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>6158</v>
+        <v>7004</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>365</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>7005</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>368</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>9082</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1762.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>9082</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>11.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="D9">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>664</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11585</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11972</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>746.75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
